--- a/spreadsheet/macrofree/hci_checklist.es.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.es.xlsx
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>Anfitrión</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Hay al menos 5 máquinas virtuales de controlador de red implementadas</t>
+          <t>Si se comparte un VMSwitch para el tráfico de cómputo y administración, se requiere que el tráfico de administración esté etiquetado con un ID de VLAN</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Esto garantiza que tenga al menos 3 NC activos en todo momento durante las actualizaciones de NC.</t>
+          <t>Esto garantiza que el tráfico de administración no esté expuesto al tráfico de máquina virtual</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1999,12 +1999,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="n"/>
+      <c r="H28" s="15" t="inlineStr"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
+          <t>abc85d0e-0ebd-4589-a777-0fa8ceb1d0f0</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2025,13 +2025,17 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Las copias de seguridad de la infraestructura SDN se configuran y prueban</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="n"/>
+          <t>Hay al menos 5 máquinas virtuales de controlador de red implementadas</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>Esto garantiza que tenga al menos 3 NC activos en todo momento durante las actualizaciones de NC.</t>
+        </is>
+      </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2040,16 +2044,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
+          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2060,23 +2060,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Clúster</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Se ha considerado la instancia administrada de SCOM para escenarios de supervisión y alerta más complejos</t>
+          <t>Las copias de seguridad de la infraestructura SDN se configuran y prueban</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2085,12 +2085,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
+          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2111,13 +2115,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Se han configurado alertas para el clúster, ya sea mediante Azure Monitor, SCOM o una solución de terceros</t>
+          <t>Se ha considerado la instancia administrada de SCOM para escenarios de supervisión y alerta más complejos</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2126,16 +2130,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
+          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Insights se ha habilitado a nivel de clúster y todos los nodos están informando datos</t>
+          <t>Se han configurado alertas para el clúster, ya sea mediante Azure Monitor, SCOM o una solución de terceros</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2173,7 +2173,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
+          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Se ha implementado Azure Monitoring Agent en hosts y se ha configurado una regla de recopilación de datos adecuada</t>
+          <t>Insights se ha habilitado a nivel de clúster y todos los nodos están informando datos</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2227,7 +2227,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
+          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Clúster</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Se ha configurado la supervisión de hardware relevante</t>
+          <t>Se ha implementado Azure Monitoring Agent en hosts y se ha configurado una regla de recopilación de datos adecuada</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2263,13 +2263,17 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="n"/>
+      <c r="H34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+        </is>
+      </c>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
+          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2290,7 +2294,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Se han configurado alertas de hardware relevantes</t>
+          <t>Se ha configurado la supervisión de hardware relevante</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2305,17 +2309,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
+          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2326,23 +2326,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Administración de VM - Puente de recursos</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>La CLI de Azure se ha instalado en cada nodo para habilitar la administración de RB desde WAC</t>
+          <t>Se han configurado alertas de hardware relevantes</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2351,13 +2351,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
+          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2368,7 +2372,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2378,7 +2382,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>DHCP está disponible en el clúster para admitir la configuración de invitado en la implementación de VM desde Azure</t>
+          <t>La CLI de Azure se ha instalado en cada nodo para habilitar la administración de RB desde WAC</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2399,7 +2403,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
+          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2410,23 +2414,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad y recuperación ante desastres</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Administración de VM - Puente de recursos</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Las copias de seguridad de máquinas virtuales HCI se han configurado mediante MABS o una solución de terceros</t>
+          <t>DHCP está disponible en el clúster para admitir la configuración de invitado en la implementación de VM desde Azure</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2435,17 +2439,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
+          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2456,17 +2456,17 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Copia de seguridad y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Configuración del clúster</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Se ha documentado y mantenido la configuración del clúster o un script de configuración</t>
+          <t>Las copias de seguridad de máquinas virtuales HCI se han configurado mediante MABS o una solución de terceros</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2481,13 +2481,17 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
+        </is>
+      </c>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
+          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Se ha configurado un testigo de clúster</t>
+          <t>Se ha documentado y mantenido la configuración del clúster o un script de configuración</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2523,17 +2527,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
+          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2554,13 +2554,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Se ha configurado la actualización compatible con clústeres para Windows y las actualizaciones de hardware (si están disponibles)</t>
+          <t>Se ha configurado un testigo de clúster para clústeres con menos de 5 nodos</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2571,7 +2571,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
+          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2600,13 +2600,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>La validación del clúster se ha ejecutado en el clúster configurado</t>
+          <t>Se ha configurado la actualización compatible con clústeres para Windows y las actualizaciones de hardware (si están disponibles)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2617,7 +2617,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
+          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Las ventajas de Azure se han habilitado en los niveles de clúster y máquina virtual</t>
+          <t>La validación del clúster se ha ejecutado en el clúster configurado</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
+          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>El módulo Comprobador de entorno se ha ejecutado para validar el entorno</t>
+          <t>Las ventajas de Azure se han habilitado en los niveles de clúster y máquina virtual</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2709,7 +2709,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2717,7 +2717,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
+          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Se ha bloqueado la herencia de directivas de grupo en el clúster y el nodo de HCI La unidad organizativa de Active Directory se ha bloqueado o se han evaluado directivas aplicadas para detectar problemas de compatibilidad (normalmente la directiva de ejecución de WinRM y PowerShell)</t>
+          <t>El módulo Comprobador de entorno se ha ejecutado para validar el entorno</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2755,14 +2755,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
+          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>WAC está en la versión más reciente y configurado para actualizar automáticamente las extensiones</t>
+          <t>Se ha bloqueado la herencia de directivas de grupo en el clúster y el nodo de HCI La unidad organizativa de Active Directory se ha bloqueado o se han evaluado directivas aplicadas para detectar problemas de compatibilidad (normalmente la directiva de ejecución de WinRM y PowerShell)</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2798,13 +2798,17 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
+          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2815,17 +2819,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Agrupación de estiramientos</t>
+          <t>Configuración del clúster</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Hay una latencia inferior a 5 ms entre cada sitio si se está configurando la replicación sincrónica AAD</t>
+          <t>WAC está en la versión más reciente y configurado para actualizar automáticamente las extensiones</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2846,7 +2850,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
+          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2857,7 +2861,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2867,13 +2871,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Hay un plan detallado para la falla y recuperación del sitio</t>
+          <t>Hay una latencia inferior a 5 ms entre cada sitio si se está configurando la replicación sincrónica AAD</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2882,12 +2886,16 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
+          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2908,13 +2916,13 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Se utilizan redes y vLAN independientes para cada red de replicación en ambos sitios.</t>
+          <t>Las redes de administración, replicación y almacenamiento de información excluidas de las configuraciones de VLAN extendidas, se enrutan y se encuentran en diferentes subredes</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2928,7 +2936,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+          <t>3277558e-3155-4088-b49a-78594cb4ce1a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2939,23 +2947,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad y recuperación ante desastres</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Agrupación de estiramientos</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery se ha considerado con fines de recuperación ante desastres</t>
+          <t>Hay un plan detallado para la falla y recuperación del sitio</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2964,17 +2972,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2983,147 +2987,404 @@
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de redes</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Agrupación de estiramientos</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Se utilizan redes y vLAN independientes para cada red de replicación en ambos sitios.</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>Agrupación de estiramientos</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>Usar un testigo de nube o un testigo de recurso compartido de archivos en un tercer sitio para el quórum de clúster para clústeres con menos de 5 nodos</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b5</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Agrupación de estiramientos</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Cuando utilice la deduplicación de datos, habilítela solo en los volúmenes primarios/de origen</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b6</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>Agrupación de estiramientos</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>Los volúmenes de registro de respaldo de almacenamiento deben ser más rápidos (idealmente) o al menos tan rápidos como el almacenamiento de capacidad</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/storage-replica/stretch-cluster-replication-using-shared-storage#provision-operating-system-features-roles-storage-and-network</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>ac527887-f6f4-40a3-b883-e04d704f013b</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>Copia de seguridad y recuperación ante desastres</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>Recuperación ante desastres</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Azure Site Recovery se ha considerado con fines de recuperación ante desastres</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>Anfitrión</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>BitLocker se ha habilitado en CSV para el cifrado de volúmenes, cuando corresponda</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/operating-system-security/data-protection/bitlocker/protecting-cluster-shared-volumes-and-storage-area-networks-with-bitlocker</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>03e65fdc-2628-4a1a-ba2e-a5174340ba52</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>Anfitrión</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>Se ha habilitado el cifrado SMB, cuando corresponda</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/file-server/smb-security</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>9645d2e6-ba28-453c-b6d5-d9ef29fc34be</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>Anfitrión</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>Antivirus de Microsoft Defender se ha habilitado en todos los nodos</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-antivirus-on-windows-server</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>8f03437a-5068-4486-9a78-0402ce771298</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>Anfitrión</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>Se ha configurado Credential Guard, cuando corresponda</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/identity-protection/credential-guard/credential-guard-manage</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>dba6b211-fc02-43b3-b7c8-f163c188332e</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -7010,7 +7271,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/hci_checklist.es.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.es.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Todos los pools de almacenamiento planificados deben usar almacenamiento de conexión directa (SATA, SAS, NVMe)</t>
+          <t>Todos los grupos de almacenamiento planificados deben utilizar almacenamiento de conexión directa (SATA, SAS, NVMe)</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>La redundancia de disco de tipo paridad sólo debe utilizarse para volúmenes de E/S bajos (copia de seguridad/archivo)</t>
+          <t>La redundancia de disco de tipo de paridad solo debe usarse para volúmenes de E/S bajos (copia de seguridad/archivo)</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Se ha considerado que la "asignación delimitada" mejora la resistencia del volumen en un fallo de varios nodos</t>
+          <t>Se ha considerado la posibilidad de utilizar la "asignación delimitada" para mejorar la resistencia de los volúmenes en caso de error de varios nodos</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>VMFleet se ha ejecutado antes de la implementación de la carga de trabajo para el rendimiento de almacenamiento de referencia</t>
+          <t>VMFleet se ha ejecutado antes de la implementación de la carga de trabajo para obtener un rendimiento de almacenamiento de línea de base</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>VMFleet es una herramienta que se puede usar para medir el rendimiento de un subsistema de almacenamiento, que se usa mejor para establecer una línea de base del rendimiento antes de la implementación de la carga de trabajo.</t>
+          <t>VMFleet es una herramienta que se puede utilizar para medir el rendimiento de un subsistema de almacenamiento, que se utiliza mejor para establecer una línea de base del rendimiento antes de la implementación de la carga de trabajo</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Las unidades del sistema operativo utilizan un controlador de almacenamiento dedicado</t>
+          <t>Las unidades del sistema operativo utilizan una controladora de almacenamiento dedicada</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>El almacenamiento en caché de lectura en memoria CSV está habilitado y configurado correctamente</t>
+          <t>El almacenamiento en caché de lectura en memoria de CSV está habilitado y configurado correctamente</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Las NIC son simétricas en todos los nodos</t>
+          <t>Las NIC son simétricas entre los nodos</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>La configuración de red del host es administrada por ATC de red y las intenciones son correctas</t>
+          <t>La configuración de red del host se administra mediante Network ATC y las intenciones están en buen estado</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Para los diseños sin conmutación, se ha implementado la conectividad de malla completa de doble enlace</t>
+          <t>Para los diseños sin interruptores, se ha implementado la conectividad de malla completa de doble enlace</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1980,12 +1980,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Si se comparte un VMSwitch para el tráfico de cómputo y administración, se requiere que el tráfico de administración esté etiquetado con un ID de VLAN</t>
+          <t>Si se comparte un VMSwitch para el tráfico informático y de administración, exija que el tráfico de administración se etiquete con un ID de VLAN</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Esto garantiza que el tráfico de administración no esté expuesto al tráfico de máquina virtual</t>
+          <t>Esto garantiza que el tráfico de administración no esté expuesto al tráfico de la máquina virtual</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Hay al menos 5 máquinas virtuales de controlador de red implementadas</t>
+          <t>Hay al menos 3 máquinas virtuales de controladora de red implementadas</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
@@ -2105,7 +2105,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Se ha considerado la instancia administrada de SCOM para escenarios de supervisión y alerta más complejos</t>
+          <t>SCOM Managed Instance se ha tenido en cuenta para escenarios de supervisión y alertas más complejos</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2146,7 +2146,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Se han configurado alertas para el clúster, ya sea mediante Azure Monitor, SCOM o una solución de terceros</t>
+          <t>Las alertas se han configurado para el clúster, ya sea mediante Azure Monitor, SCOM o una solución de terceros</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2192,7 +2192,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Insights se ha habilitado a nivel de clúster y todos los nodos están informando datos</t>
+          <t>Insights se ha habilitado en el nivel de clúster y todos los nodos informan de datos</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2238,7 +2238,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Se ha implementado Azure Monitoring Agent en hosts y se ha configurado una regla de recopilación de datos adecuada</t>
+          <t>El agente de supervisión de Azure se ha implementado en los hosts y se ha configurado una regla de recopilación de datos adecuada</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2284,7 +2284,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Se ha configurado la supervisión de hardware relevante</t>
+          <t>Se ha configurado la supervisión de hardware pertinente</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2326,7 +2326,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Se han configurado alertas de hardware relevantes</t>
+          <t>Se han configurado las alertas de hardware relevantes</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Administración de VM - Puente de recursos</t>
+          <t>Administración de máquinas virtuales: puente de recursos</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>La CLI de Azure se ha instalado en cada nodo para habilitar la administración de RB desde WAC</t>
+          <t>La CLI de Azure se ha instalado en todos los nodos para habilitar la administración de RB desde WAC</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2419,12 +2419,12 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Administración de VM - Puente de recursos</t>
+          <t>Administración de máquinas virtuales: puente de recursos</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>DHCP está disponible en el clúster para admitir la configuración de invitado en la implementación de VM desde Azure</t>
+          <t>DHCP está disponible en el clúster para admitir la configuración de invitado en la implementación de máquinas virtuales desde Azure</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Las copias de seguridad de máquinas virtuales HCI se han configurado mediante MABS o una solución de terceros</t>
+          <t>Las copias de seguridad de las máquinas virtuales de HCI se han configurado mediante MABS o una solución de terceros</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Se ha configurado la actualización compatible con clústeres para Windows y las actualizaciones de hardware (si están disponibles)</t>
+          <t>La actualización compatible con clústeres se ha configurado para Windows y actualizaciones de hardware (si están disponibles)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Las ventajas de Azure se han habilitado en los niveles de clúster y máquina virtual</t>
+          <t>Ventajas de Azure se ha habilitado en los niveles de clúster y máquina virtual</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>El módulo Comprobador de entorno se ha ejecutado para validar el entorno</t>
+          <t>Se ha ejecutado el módulo Comprobador de entorno para validar el entorno</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Se ha bloqueado la herencia de directivas de grupo en el clúster y el nodo de HCI La unidad organizativa de Active Directory se ha bloqueado o se han evaluado directivas aplicadas para detectar problemas de compatibilidad (normalmente la directiva de ejecución de WinRM y PowerShell)</t>
+          <t>La herencia de directivas de grupo en el clúster de HCI y la unidad organizativa de Nodo de Active Directory se ha bloqueado o se han evaluado las directivas aplicadas en busca de problemas de compatibilidad (normalmente directivas de ejecución de WinRM y PowerShell)</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>WAC está en la versión más reciente y configurado para actualizar automáticamente las extensiones</t>
+          <t>WAC está en la versión más reciente y está configurado para actualizar automáticamente las extensiones</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Agrupación de estiramientos</t>
+          <t>Agrupación en clústeres de extensión</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Hay una latencia inferior a 5 ms entre cada sitio si se está configurando la replicación sincrónica AAD</t>
+          <t>Hay una latencia inferior a 5 ms entre cada sitio si se configura la replicación sincrónica AAD</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Agrupación de estiramientos</t>
+          <t>Agrupación en clústeres de extensión</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Las redes de administración, replicación y almacenamiento de información excluidas de las configuraciones de VLAN extendidas, se enrutan y se encuentran en diferentes subredes</t>
+          <t>Las redes de administración, replicación y almacenamiento excluidas de las configuraciones de VLAN extendidas, se enrutan y se encuentran en diferentes subredes</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Agrupación de estiramientos</t>
+          <t>Agrupación en clústeres de extensión</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Agrupación de estiramientos</t>
+          <t>Agrupación en clústeres de extensión</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Se utilizan redes y vLAN independientes para cada red de replicación en ambos sitios.</t>
+          <t>Se utilizan redes y vLAN independientes para cada red de replicación en ambos sitios</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3036,12 +3036,12 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Agrupación de estiramientos</t>
+          <t>Agrupación en clústeres de extensión</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Usar un testigo de nube o un testigo de recurso compartido de archivos en un tercer sitio para el quórum de clúster para clústeres con menos de 5 nodos</t>
+          <t>Use un testigo en la nube o un testigo de recurso compartido de archivos en un tercer sitio para el quórum de clúster para clústeres con menos de 5 nodos</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3082,12 +3082,12 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Agrupación de estiramientos</t>
+          <t>Agrupación en clústeres de extensión</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Cuando utilice la deduplicación de datos, habilítela solo en los volúmenes primarios/de origen</t>
+          <t>Cuando utilice la desduplicación de datos, habilítela solo en los volúmenes primarios o de origen</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Agrupación de estiramientos</t>
+          <t>Agrupación en clústeres de extensión</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery se ha considerado con fines de recuperación ante desastres</t>
+          <t>Azure Site Recovery se ha tenido en cuenta con fines de recuperación ante desastres</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Antivirus de Microsoft Defender se ha habilitado en todos los nodos</t>
+          <t>Microsoft Defender Antivirus se ha habilitado en todos los nodos</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Se ha configurado Credential Guard, cuando corresponda</t>
+          <t>Credential Guard se ha configurado, cuando corresponda</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -7286,7 +7286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7481,6 +7481,13 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
         </is>
       </c>
     </row>
